--- a/public/excel/Контрактация БАС 2024 год 01-04-2024.xlsx
+++ b/public/excel/Контрактация БАС 2024 год 01-04-2024.xlsx
@@ -8,93 +8,93 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Закупки" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Закупки" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$2:$Q$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$2:$S$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_20B4BDC9_B8CB_4436_B1CF_D33EE04B07DD_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$AL$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$AN$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_A16762B0_A3C0_437A_B3E8_DA1B0668A558_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$W$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$2:$Y$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">% освоения от общего объема средств федерального бюджета </t>
   </si>
   <si>
+    <t xml:space="preserve">Средства экономии/нераспределенного остатка федерального бюджета</t>
+  </si>
+  <si>
     <t xml:space="preserve">Средства субъекта РФ из фин. соглашения</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">% освоения от общего объема средств бюджета субъекта РФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средства экономии/нераспределенного остатка регионального бюджета</t>
   </si>
   <si>
     <t xml:space="preserve">Куратор</t>
@@ -166,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,6 +218,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -302,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,6 +328,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +352,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,7 +364,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,14 +386,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -376,6 +402,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB9CDE5"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -383,6 +410,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -454,23 +482,129 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00FF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="24.33"/>
@@ -479,73 +613,78 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="38.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="11" style="1" width="27.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="43.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="20" style="1" width="43.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="0" width="43.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="38.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="1" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="43.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="22" style="1" width="43.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="29" style="3" width="43.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1023" style="3" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q2"/>
+  <autoFilter ref="A2:S2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="8" scale="60" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
